--- a/data/income_statement/1digit/size/F_IS_LARGE.xlsx
+++ b/data/income_statement/1digit/size/F_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>F-Construction</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>F-Construction</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1172 +841,1322 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>32670464.47841</v>
+        <v>28690663.2942</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>37052785.75970999</v>
+        <v>32402933.76488</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>46960110.30915</v>
+        <v>41838479.13174</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>59680503.53386</v>
+        <v>55677896.06726</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>63688780.82209001</v>
+        <v>57653111.95603999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>84192841.34056</v>
+        <v>77628984.55247</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>82487977.69588999</v>
+        <v>83331772.25304002</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>125438001.37973</v>
+        <v>109804282.24001</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>159445128.04361</v>
+        <v>140343881.87883</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>159087069.53413</v>
+        <v>140791794.46678</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>199303152.55881</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>178538481.88091</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>201092200.889</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>29458455.21874</v>
+        <v>25938441.99648</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>33695803.24582</v>
+        <v>29592257.66785</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>42110827.69062</v>
+        <v>37442190.14915</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>53424429.25703</v>
+        <v>48168947.28524999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>56503485.33779</v>
+        <v>50757928.95947</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>76015363.79277998</v>
+        <v>70201503.19733</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>73892875.52429</v>
+        <v>74957910.39937</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>109526077.15116</v>
+        <v>95028318.31255999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>139117217.24106</v>
+        <v>121598205.37681</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>135925574.71067</v>
+        <v>119127420.03171</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>175052934.03303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>156343045.91268</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>178900418.513</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>2748905.65594</v>
+        <v>2449573.75321</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>2844222.7318</v>
+        <v>2474436.02606</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>4005400.12629</v>
+        <v>3706489.13951</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>5249776.798420001</v>
+        <v>6715948.287059999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>5873178.69524</v>
+        <v>5754714.919980001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>6770773.822059999</v>
+        <v>6371075.82493</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>7001350.215989999</v>
+        <v>7054224.26208</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>13844437.40701</v>
+        <v>13366489.21156</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>17404937.27129</v>
+        <v>16720024.26048</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>20192877.0429</v>
+        <v>19445158.82301</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>20091465.65118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>18980160.39687</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>19063576.786</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>463103.60373</v>
+        <v>302647.54451</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>512759.7820899999</v>
+        <v>336240.07097</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>843882.4922399999</v>
+        <v>689799.8430799999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>1006297.47841</v>
+        <v>793000.4949500001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1312116.78906</v>
+        <v>1140468.07659</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>1406703.72572</v>
+        <v>1056405.53021</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1593751.95561</v>
+        <v>1319637.59159</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>2067486.82156</v>
+        <v>1409474.71589</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>2922973.53126</v>
+        <v>2025652.24154</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>2968617.78056</v>
+        <v>2219215.61206</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>4158752.8746</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>3215275.57136</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>3128205.59</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>160351.63269</v>
+        <v>127286.22023</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>570379.27728</v>
+        <v>540680.6105599999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>259349.09911</v>
+        <v>228064.18912</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>203969.10085</v>
+        <v>174901.88684</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>238786.9591</v>
+        <v>210592.4250200001</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>658731.5175</v>
+        <v>553862.1413699999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>484371.16227</v>
+        <v>471149.05948</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>2208538.68221</v>
+        <v>1020017.42547</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>2127768.92456</v>
+        <v>1951465.05276</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1399359.66733</v>
+        <v>1071282.77154</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1849973.04186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1578414.51785</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1578816.126</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>68907.13688999999</v>
+        <v>48353.62378</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>78273.85244</v>
+        <v>52620.08225</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>87324.15325</v>
+        <v>60789.92773999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>129128.95085</v>
+        <v>107392.77563</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>141558.3512</v>
+        <v>118769.03461</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>483313.38096</v>
+        <v>387802.56004</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>274655.87811</v>
+        <v>271039.35149</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1781102.02696</v>
+        <v>618788.51319</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1054789.16978</v>
+        <v>901781.1996299999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>886481.9922199999</v>
+        <v>619995.25562</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>858028.6356699999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>666848.85136</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>853410.08</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>78729.53366</v>
+        <v>75175.68654000001</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>488054.7122899999</v>
+        <v>484258.66258</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>168056.30876</v>
+        <v>164663.79017</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>69497.03054000001</v>
+        <v>65156.95134000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>85295.45353000001</v>
+        <v>80671.67750000001</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>169495.97984</v>
+        <v>160635.28868</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>192989.59762</v>
+        <v>192127.3871</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>393861.5417600001</v>
+        <v>378878.431</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>1039428.1896</v>
+        <v>1025818.4147</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>421722.8817800001</v>
+        <v>367858.92498</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>916700.9591100001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>877913.20891</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>665783.345</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>12714.96214</v>
+        <v>3756.90991</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>4050.71255</v>
+        <v>3801.86573</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>3968.637099999999</v>
+        <v>2610.471210000001</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>5343.11946</v>
+        <v>2352.15987</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>11933.15437</v>
+        <v>11151.71291</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>5922.1567</v>
+        <v>5424.29265</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>16725.68654</v>
+        <v>7982.320890000001</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>33575.11349</v>
+        <v>22350.48128</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>33551.56518</v>
+        <v>23865.43843</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>91154.79333000001</v>
+        <v>83428.59093999999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>75243.44708000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>33652.45757999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>59622.701</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>32510112.84572</v>
+        <v>28563377.07397</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>36482406.48243</v>
+        <v>31862253.15432</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>46700761.21004</v>
+        <v>41610414.94261999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>59476534.43301</v>
+        <v>55502994.18042</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>63449993.86299</v>
+        <v>57442519.53101999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>83534109.82306001</v>
+        <v>77075122.4111</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>82003606.53362</v>
+        <v>82860623.19356002</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>123229462.69752</v>
+        <v>108784264.81454</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>157317359.11905</v>
+        <v>138392416.82607</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>157687709.8668</v>
+        <v>139720511.69524</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>197453179.51695</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>176960067.36306</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>199513384.763</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>27847897.72299</v>
+        <v>24588418.07301</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>31551692.73906999</v>
+        <v>27750688.73238</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>39962498.27452</v>
+        <v>35777176.80652</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>51804972.61945</v>
+        <v>48925828.64833</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>54964789.74672</v>
+        <v>49788521.88574</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>74839113.20378999</v>
+        <v>69801808.45240998</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>70565181.35081999</v>
+        <v>72381595.28242999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>108506831.0976</v>
+        <v>96518009.02966</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>137458915.4007</v>
+        <v>121899571.95419</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>134846492.82768</v>
+        <v>120979095.32115</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>169462250.16665</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>153557834.60546</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>176373655.283</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>5625920.48882</v>
+        <v>5036521.454</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>4799090.57917</v>
+        <v>4087074.61919</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>6862757.625630001</v>
+        <v>5969777.996779999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>10936462.64169</v>
+        <v>9497800.584040001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>10592601.46011</v>
+        <v>9609317.681190001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>13634036.46429</v>
+        <v>12825159.56686</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>14028406.87184</v>
+        <v>12618180.08779</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>21786746.98337</v>
+        <v>18537845.95831</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>28968535.74468</v>
+        <v>24409823.60752</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>24625131.44228</v>
+        <v>20810171.12806</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>20116553.76567</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>16295289.39515</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>18705203.009</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>3675604.79188</v>
+        <v>3131673.18191</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>4780117.597770001</v>
+        <v>4227326.29917</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>5078347.585560001</v>
+        <v>4330672.38488</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>6242131.093359999</v>
+        <v>5671008.403299999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>7562195.335519999</v>
+        <v>6619691.06916</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>7717984.90817</v>
+        <v>6767651.260729999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>9891733.70613</v>
+        <v>9283992.756129999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>14719736.05045</v>
+        <v>12687066.68712</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>22733989.42013</v>
+        <v>19975397.18565</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>20457434.23825</v>
+        <v>18053010.87087</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>21020536.57798</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>17978619.70456</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>21159360.359</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>18096550.80137</v>
+        <v>16021594.75609</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>21498197.49145</v>
+        <v>19027303.31018</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>27267616.37138</v>
+        <v>24772147.09726</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>32991043.96159</v>
+        <v>32180091.38454</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>35644580.50781</v>
+        <v>32335386.30195</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>51184344.36099</v>
+        <v>47922945.37978</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>45762854.87812001</v>
+        <v>49659234.04082999</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>70896777.51538999</v>
+        <v>64389878.31232</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>84471334.4657</v>
+        <v>76470424.18061</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>88446129.51358999</v>
+        <v>81076291.89142999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>126889190.76979</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>118174263.90902</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>135146040.771</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>449821.64092</v>
+        <v>398628.6810100001</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>474287.0706800001</v>
+        <v>408984.50384</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>753776.6919499999</v>
+        <v>704579.3276</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1635334.92281</v>
+        <v>1576928.27645</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1165412.44328</v>
+        <v>1224126.83344</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>2302747.47034</v>
+        <v>2286052.24504</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>882185.8947300001</v>
+        <v>820188.3976799999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1103570.54839</v>
+        <v>903218.0719100001</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>1285055.77019</v>
+        <v>1043926.98041</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1317797.63356</v>
+        <v>1039621.43079</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>1435969.05321</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1109661.59673</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1363051.144</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>4662215.12273</v>
+        <v>3974959.00096</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>4930713.74336</v>
+        <v>4111564.42194</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>6738262.935520001</v>
+        <v>5833238.136100001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>7671561.813560001</v>
+        <v>6577165.53209</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>8485204.11627</v>
+        <v>7653997.645280001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>8694996.619270001</v>
+        <v>7273313.958690001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>11438425.1828</v>
+        <v>10479027.91113</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>14722631.59992</v>
+        <v>12266255.78488</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>19858443.71835</v>
+        <v>16492844.87188</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>22841217.03912</v>
+        <v>18741416.37409</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>27990929.3503</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>23402232.7576</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>23139729.48</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>1586678.29589</v>
+        <v>1057252.87715</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1864483.49722</v>
+        <v>1187832.7733</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>2733625.14368</v>
+        <v>1826500.95866</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>3544612.07371</v>
+        <v>2098317.65741</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>3381465.54038</v>
+        <v>2353245.95966</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>4074485.42018</v>
+        <v>2847502.6524</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>4313435.59065</v>
+        <v>3241600.22091</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>6143717.0365</v>
+        <v>4057652.043310001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>8670577.52241</v>
+        <v>6214493.835179999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>8281097.77949</v>
+        <v>5884562.7553</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>9350434.299230002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>6028282.587150001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>6881740.022</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>8009.424940000001</v>
+        <v>7828.92993</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1831.69269</v>
+        <v>1657.74529</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>12246.10947</v>
+        <v>5013.128549999999</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>46343.00818</v>
+        <v>45092.79649</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>7470.32889</v>
+        <v>3189.10251</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>5583.98307</v>
+        <v>5298.27436</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>4551.02524</v>
+        <v>3977.90151</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>10528.5638</v>
+        <v>9873.75527</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>21220.27913</v>
+        <v>16411.99768</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>39748.05025</v>
+        <v>37617.64492</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>64955.49269</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>60144.64545</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>91482.588</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>250137.97034</v>
+        <v>188439.17074</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>333199.47938</v>
+        <v>236870.28172</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>536942.6624799999</v>
+        <v>425247.28863</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>606925.3529299999</v>
+        <v>446324.19198</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>752637.24307</v>
+        <v>602821.72773</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>809492.87653</v>
+        <v>632782.71825</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>819570.0718500001</v>
+        <v>725959.0279300001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1203556.52752</v>
+        <v>963906.0792800001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>1601581.72578</v>
+        <v>1259354.44055</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1666446.38858</v>
+        <v>1302112.75118</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1939559.91584</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1622475.83931</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1694728.192</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>1328530.90061</v>
+        <v>860984.77648</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1529452.32515</v>
+        <v>949304.7462899999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>2184436.37173</v>
+        <v>1396240.54148</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2891343.7126</v>
+        <v>1606900.66894</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2621357.96842</v>
+        <v>1747235.12942</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>3259408.56058</v>
+        <v>2209421.65979</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>3489314.49356</v>
+        <v>2511663.29147</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>4929631.945180001</v>
+        <v>3083872.20876</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>7047775.5175</v>
+        <v>4938727.396950001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>6574903.34066</v>
+        <v>4544832.3592</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>7345918.890699999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>4345662.10239</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>5095529.242</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>3075536.82684</v>
+        <v>2917706.12381</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>3066230.24614</v>
+        <v>2923731.64864</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>4004637.79184</v>
+        <v>4006737.17744</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>4126949.73985</v>
+        <v>4478847.87468</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>5103738.575889999</v>
+        <v>5300751.685620001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>4620511.19909</v>
+        <v>4425811.30629</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>7124989.592150001</v>
+        <v>7237427.690219999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>8578914.56342</v>
+        <v>8208603.74157</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>11187866.19594</v>
+        <v>10278351.0367</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>14560119.25963</v>
+        <v>12856853.61879</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>18640495.05107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>17373950.17045</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>16257989.458</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>5315085.56594</v>
+        <v>3090159.38545</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>7026159.21814</v>
+        <v>4350585.30999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>9010396.42138</v>
+        <v>5767934.99959</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>8290334.626330002</v>
+        <v>4979122.50851</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>10474038.14969</v>
+        <v>8099530.47481</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>15412328.27515</v>
+        <v>10382076.63074</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>22525531.94846</v>
+        <v>20312876.74220001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>29404453.24029</v>
+        <v>22021960.98621</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>36395107.53262001</v>
+        <v>29011351.45452</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>82469801.11112002</v>
+        <v>59370470.04617</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>51428476.71977001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>38709070.96356</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>55164616.563</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>694525.04139</v>
+        <v>383327.2249</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>498762.1958200001</v>
+        <v>142388.09818</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>777106.5091000001</v>
+        <v>355916.7854</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>618226.8977</v>
+        <v>279263.5693</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>831333.5761700001</v>
+        <v>482312.09587</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1003696.93245</v>
+        <v>578642.2998200001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>980678.3114999998</v>
+        <v>691753.38205</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>1063262.0631</v>
+        <v>687068.9210399999</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>1988505.04942</v>
+        <v>1416747.26756</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>1951312.04691</v>
+        <v>1126952.24337</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>3375947.06854</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>2410822.29126</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>3249109.282</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>848727.29564</v>
+        <v>313544.06706</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>880260.4027399999</v>
+        <v>546553.81387</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>910140.14318</v>
+        <v>632531.30383</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>1432696.36717</v>
+        <v>989137.67678</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>937604.30918</v>
+        <v>843806.52602</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>2064792.88228</v>
+        <v>1138082.51048</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1350499.5541</v>
+        <v>1079019.11891</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>1952240.97671</v>
+        <v>1380616.22638</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>2224282.99136</v>
+        <v>1605911.38123</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>5077452.6534</v>
+        <v>4256470.6882</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>4642567.977220001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>4067720.70217</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>4545101.231</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>606922.1741599999</v>
+        <v>389299.0934600001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>673368.4824200001</v>
+        <v>433585.52975</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>946309.4202800001</v>
+        <v>630943.3689300001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1245716.197</v>
+        <v>705309.58776</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1108448.79775</v>
+        <v>808317.25723</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1585935.79039</v>
+        <v>1056325.16998</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1816563.35195</v>
+        <v>1548661.56893</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2669418.150610001</v>
+        <v>1781240.66951</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>3565426.862209999</v>
+        <v>2487334.66441</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>4357246.05577</v>
+        <v>2553681.27688</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>4570409.47775</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2516432.896480001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>2405688.754</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>4237.160690000001</v>
+        <v>2406.04822</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>1922.82572</v>
+        <v>1003.50569</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>7198.168070000001</v>
+        <v>1418.68738</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>7608.691430000001</v>
+        <v>4300.06337</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>6726.363909999999</v>
+        <v>5773.8102</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>3732.74911</v>
+        <v>1566.03141</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>52213.07244999999</v>
+        <v>38594.04282</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>75251.48575000001</v>
+        <v>70228.77703</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>25762.20246</v>
+        <v>12467.29757</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>52622.54844</v>
+        <v>17858.28751</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>24909.62966</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>3487.44886</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1251.458</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>85408.88245000002</v>
+        <v>14854.15945</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>87239.72752</v>
+        <v>14292.66965</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>203911.67474</v>
+        <v>9354.83927</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>224176.23951</v>
+        <v>20903.66975</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>229555.20778</v>
+        <v>30119.26915</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>269593.48876</v>
+        <v>71740.85215999999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>31856.9299</v>
+        <v>21098.3552</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>61219.35375</v>
+        <v>50579.4236</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>63452.20889</v>
+        <v>55557.75868</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>159718.07067</v>
+        <v>142509.48266</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>139327.33657</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>120916.22192</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>64870.136</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>146176.26491</v>
+        <v>111765.16179</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>192050.85162</v>
+        <v>144067.2363</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>421060.7357</v>
+        <v>328072.58697</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>520595.20523</v>
+        <v>485714.22168</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>646065.97121</v>
+        <v>619883.3285299999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>347024.089</v>
+        <v>301819.9399</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>459600.70387</v>
+        <v>407407.54131</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>404060.89051</v>
+        <v>344263.04663</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1115797.92031</v>
+        <v>981192.7776499998</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>581053.43012</v>
+        <v>501278.77071</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>2445225.13253</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1911380.16837</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1379483.728</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>2359075.73151</v>
+        <v>1498671.5363</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>2662978.26665</v>
+        <v>1623128.27967</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>4462075.816140001</v>
+        <v>2827392.39324</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>2906078.58368</v>
+        <v>1672665.78972</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>4724495.095370001</v>
+        <v>3731991.39137</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>8215793.842590001</v>
+        <v>5882154.55062</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>15681916.80251</v>
+        <v>14666728.44334</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>19684567.49602</v>
+        <v>15445472.97303</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>23257617.45407</v>
+        <v>19347224.31724</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>65021891.53013001</v>
+        <v>46998119.37419999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>28224317.74077</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>22147787.70089</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>40607440.925</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>31229.85678</v>
+        <v>20121.54606</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>25007.44382</v>
+        <v>20571.5755</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>41917.62452999999</v>
+        <v>25646.03546</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>63409.92905</v>
+        <v>57780.71542</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>91201.90742999999</v>
+        <v>89568.35298</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>81517.56174999999</v>
+        <v>78665.50000000001</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>206411.16788</v>
+        <v>204166.62936</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>196389.64471</v>
+        <v>185343.40179</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>308893.31068</v>
+        <v>290296.5402100001</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>214460.88537</v>
+        <v>88420.62110999999</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>173021.6429900001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>39047.88498</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>39972.847</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>25071.27951</v>
+        <v>24816.39924</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>383205.18467</v>
+        <v>382719.44804</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>362949.42083</v>
+        <v>361562.16411</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>82959.46881999999</v>
+        <v>82684.03048</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>81148.58743000001</v>
+        <v>79052.10605</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>4214.416810000001</v>
+        <v>4200.973379999999</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>12150.49376</v>
+        <v>11269.24593</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>20041.87922</v>
+        <v>19622.94079</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>3391.25666</v>
+        <v>0</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>1898.32602</v>
@@ -2113,905 +2164,1023 @@
       <c r="M34" s="48" t="n">
         <v>2133.61659</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>2762.103</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>513711.8789</v>
+        <v>331354.14897</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1621363.83716</v>
+        <v>1042275.15334</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>877726.9088100001</v>
+        <v>595096.835</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1188867.04674</v>
+        <v>681363.18425</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1817458.33346</v>
+        <v>1408706.33741</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1836026.52201</v>
+        <v>1268878.80299</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1933641.56054</v>
+        <v>1644178.41435</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>3278001.299910001</v>
+        <v>2057524.60641</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>3841978.27656</v>
+        <v>2814619.44997</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>5052145.56429</v>
+        <v>3683280.97551</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>7830617.097150001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>5489342.032039999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>2868936.099</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>2850311.32242</v>
+        <v>1926572.77037</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>3354998.75098</v>
+        <v>2274264.39831</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>5164989.542440001</v>
+        <v>3309495.77525</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>3649284.11922</v>
+        <v>2409787.43212</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>6566599.3961</v>
+        <v>5161483.15838</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>9231511.882499998</v>
+        <v>6672528.618430001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>18594457.15071</v>
+        <v>16942687.00849</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>24101394.27732</v>
+        <v>18352578.71682</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>28250639.1206</v>
+        <v>22763780.55557</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>78096801.34796999</v>
+        <v>56325427.05271</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>37080374.30897</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>26734656.59319</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>46183422.271</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>8045.402609999999</v>
+        <v>2851.51871</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>3824.44252</v>
+        <v>2162.11434</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>3732.11897</v>
+        <v>2007.93842</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>8014.424290000001</v>
+        <v>4442.242389999999</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>12750.09069</v>
+        <v>8023.47257</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>26418.08715</v>
+        <v>23807.31194</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>11276.90101</v>
+        <v>8472.811370000001</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>13861.87061</v>
+        <v>8381.905059999999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>26798.89488</v>
+        <v>10499.41467</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>17816.02791</v>
+        <v>12047.59989</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>56493.92525</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>48056.48457</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>21775.845</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>65957.65411999999</v>
+        <v>46647.952</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>61091.45061</v>
+        <v>43882.77839</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>39172.49966</v>
+        <v>31192.44605</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>78740.98259</v>
+        <v>62927.51557</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>77741.13556</v>
+        <v>90438.17208</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>186335.05056</v>
+        <v>154331.35018</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>241111.06369</v>
+        <v>225240.69245</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>242753.05654</v>
+        <v>182619.70494</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>238741.98283</v>
+        <v>180667.421</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>333335.71734</v>
+        <v>237245.94215</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>334356.31263</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>241719.47838</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>140489.469</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>38691.06441000001</v>
+        <v>23316.82965</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>19436.97834</v>
+        <v>13662.87399</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>44220.67773999999</v>
+        <v>26268.60317</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>199376.40742</v>
+        <v>153873.84593</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>276044.32617</v>
+        <v>202385.08033</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>52997.39752</v>
+        <v>30949.62227</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>284554.90998</v>
+        <v>293113.15934</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>252305.20905</v>
+        <v>236006.67824</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>445713.0155799999</v>
+        <v>381828.5616199999</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>436785.6971</v>
+        <v>360593.68846</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>293366.66519</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>264133.56467</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>411411.297</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>2142624.53562</v>
+        <v>1489844.6692</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>2476984.11283</v>
+        <v>1520073.83604</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>4206761.79264</v>
+        <v>2499155.85087</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2557651.81291</v>
+        <v>1516083.69797</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>5052845.22429</v>
+        <v>3885058.71666</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>7863016.592370001</v>
+        <v>5605054.573399999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>16733523.63924</v>
+        <v>15247116.64724</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>21907316.40832</v>
+        <v>16747495.22322</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>24378180.30164</v>
+        <v>20106314.43741</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>71802946.22157</v>
+        <v>51459049.87281</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>29828492.94589</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>22998350.85491</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>43619274.015</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>24611.52187</v>
+        <v>13675.21123</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>20527.73477</v>
+        <v>15169.15067</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>42529.50334</v>
+        <v>27711.61941</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>71996.04227000001</v>
+        <v>64195.29946</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>94025.07296999999</v>
+        <v>92549.20781000001</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>93388.39399</v>
+        <v>72221.78771999999</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>217847.06875</v>
+        <v>210204.15406</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>254492.79208</v>
+        <v>238383.39657</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>350353.31369</v>
+        <v>286748.10119</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>223548.86275</v>
+        <v>93623.45504</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>150427.55883</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>14982.83558</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>37418.823</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>26620.18642</v>
+        <v>24780.75148</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>351578.84882</v>
+        <v>350923.18507</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>378369.546</v>
+        <v>376832.41537</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>52652.70862999999</v>
+        <v>52261.07405</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>68700.38301999999</v>
+        <v>68687.99821999999</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>26847.31504</v>
+        <v>26132.9673</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>14263.67002</v>
+        <v>10648.85088</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>15341.83215</v>
+        <v>14825.47177</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>427.41208</v>
+        <v>426.37806</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>2259.42345</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>203.83128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>2.381</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>543760.95737</v>
+        <v>325455.8381000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>421555.1830899999</v>
+        <v>328390.45981</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>450203.40409</v>
+        <v>346326.90196</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>680851.7411100001</v>
+        <v>556003.7567499998</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>984493.1634</v>
+        <v>814340.5107100001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>982509.0458699999</v>
+        <v>760031.00562</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1091879.89802</v>
+        <v>947890.6931499999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1415323.10857</v>
+        <v>924866.33702</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>2810424.1999</v>
+        <v>1797296.24162</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>5280109.397849999</v>
+        <v>4160607.07091</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>6417033.0699</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>3167413.37508</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1953050.441</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>1300329.12037</v>
+        <v>707538.48649</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1131160.1564</v>
+        <v>662389.43566</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1885387.08944</v>
+        <v>1115099.61098</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1825534.62903</v>
+        <v>1051366.38111</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>2321537.58923</v>
+        <v>1377964.34742</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>3331495.66686</v>
+        <v>1886373.54898</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>4711388.574189999</v>
+        <v>3285373.96117</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>6788779.37395</v>
+        <v>4299776.51165</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>9131275.54401</v>
+        <v>5801358.934990001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>17002557.08868</v>
+        <v>9581380.209309999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>16729670.75582</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>10018407.65415</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>11867283.426</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>990703.55065</v>
+        <v>561562.8442000001</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>914012.3160600001</v>
+        <v>565757.5664700001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1450752.82743</v>
+        <v>931971.6964700001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1496021.94225</v>
+        <v>892399.4971599999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1942742.87452</v>
+        <v>1211647.74027</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>2820751.42254</v>
+        <v>1632960.05229</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>3793903.58801</v>
+        <v>3014718.45344</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>5970780.585990001</v>
+        <v>3886658.36552</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>7905109.981179999</v>
+        <v>5121365.865769999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>14474813.65401</v>
+        <v>8647638.370930001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>14402477.51619</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>8646881.468700001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>10812532.052</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>309625.56972</v>
+        <v>145975.64229</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>217147.84034</v>
+        <v>96631.86919</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>434634.26201</v>
+        <v>183127.91451</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>329512.68678</v>
+        <v>158966.88395</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>378794.71471</v>
+        <v>166316.60715</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>510744.24432</v>
+        <v>253413.49669</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>917484.9861800001</v>
+        <v>270655.50773</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>817998.78796</v>
+        <v>413118.14613</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1226165.56283</v>
+        <v>679993.0692199999</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>2527743.43467</v>
+        <v>933741.83838</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>2327193.23963</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1371526.18545</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1054751.374</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>4239981.94999</v>
+        <v>3373754.2524</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>5606230.556899999</v>
+        <v>4337663.12466</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>5964657.58134</v>
+        <v>5350076.790800001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>6942465.61793</v>
+        <v>5996816.569959999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>6689639.740249999</v>
+        <v>6860834.654630001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>7469831.92488</v>
+        <v>6248985.76962</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>6344675.815709999</v>
+        <v>7322243.46276</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>7093194.152439999</v>
+        <v>7578209.49931</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>10201059.06395</v>
+        <v>10724563.00066</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1930561.9341</v>
+        <v>6320516.40294</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>16258926.70605</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>19329956.88667</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>13371900.324</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>728339.09429</v>
+        <v>405761.61563</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1046067.21216</v>
+        <v>667826.91276</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1163380.1977</v>
+        <v>760891.58311</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1795948.72608</v>
+        <v>1391821.57613</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1171911.21618</v>
+        <v>789526.4523600001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>2388490.26055</v>
+        <v>1458785.32982</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>2144082.15107</v>
+        <v>1368624.28967</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>4544987.32423</v>
+        <v>2931936.66482</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>4269193.49756</v>
+        <v>2878587.97991</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>5642180.467650001</v>
+        <v>4267747.25492</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>6855489.78416</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>2114842.64289</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>4538320.915</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>118557.63735</v>
+        <v>83092.58278999999</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>108185.61648</v>
+        <v>78533.66988999999</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>188122.71166</v>
+        <v>146662.61884</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>169126.10355</v>
+        <v>132597.46787</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>139252.48337</v>
+        <v>100116.60669</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>158291.37688</v>
+        <v>125194.68127</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>169238.93893</v>
+        <v>148187.83276</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>276665.7939099999</v>
+        <v>227650.32865</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>437090.69447</v>
+        <v>325428.63014</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>239528.81659</v>
+        <v>219121.3605</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>330745.5223</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>209055.22857</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>194839.023</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>609781.4569400001</v>
+        <v>322669.03284</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>937881.59568</v>
+        <v>589293.24287</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>975257.48604</v>
+        <v>614228.96427</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1626822.62253</v>
+        <v>1259224.10826</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>1032658.73281</v>
+        <v>689409.8456700001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>2230198.88367</v>
+        <v>1333590.64855</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1974843.21214</v>
+        <v>1220436.45691</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>4268321.53032</v>
+        <v>2704286.33617</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>3832102.80309</v>
+        <v>2553159.349770001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>5402651.651059999</v>
+        <v>4048625.89442</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>6524744.261860002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1905787.41432</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>4343481.892</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>754014.25255</v>
+        <v>517903.19806</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>990984.8564</v>
+        <v>698630.62616</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>3214669.42886</v>
+        <v>1881772.10543</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>1473073.37822</v>
+        <v>1043059.75702</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1316751.27615</v>
+        <v>1002025.50606</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>3065750.45031</v>
+        <v>2171361.59284</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>2247057.3716</v>
+        <v>1906385.94554</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>5145696.992559999</v>
+        <v>3925765.30622</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>4282124.77785</v>
+        <v>3179511.99019</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>3774877.67135</v>
+        <v>2349356.4105</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>4510029.59308</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>3109818.80134</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>3828426.273</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>52691.83157</v>
+        <v>32617.65112</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>67098.83107000001</v>
+        <v>42059.63563</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>56002.99783</v>
+        <v>35217.57075</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>31779.44224</v>
+        <v>21718.45026</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>48363.2075</v>
+        <v>44618.56723</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>57194.47237</v>
+        <v>38465.87264</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>72845.32352000001</v>
+        <v>37155.04868</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>90539.18038999999</v>
+        <v>52303.83629</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>127860.85878</v>
+        <v>86641.71992</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>86405.72503</v>
+        <v>60448.62221999999</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>80802.48716999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>58219.62637000001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>50068.537</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>146292.01638</v>
+        <v>105148.23711</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>208274.18985</v>
+        <v>143085.2616</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>282237.76409</v>
+        <v>223323.78575</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>238096.51863</v>
+        <v>190960.07441</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>216769.95506</v>
+        <v>160503.82368</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>350395.3666</v>
+        <v>412432.25538</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>373097.2000599999</v>
+        <v>339289.83673</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>611457.08415</v>
+        <v>530098.18262</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>618591.7678399999</v>
+        <v>492753.06038</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>407910.0214999999</v>
+        <v>321435.27825</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>533933.34265</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>353808.36325</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>478614.503</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>555030.4046</v>
+        <v>380137.30983</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>715611.8354799999</v>
+        <v>513485.7289299999</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>2876428.66694</v>
+        <v>1623230.74893</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>1203197.41735</v>
+        <v>830381.2323500001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>1051618.11359</v>
+        <v>796903.11515</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>2658160.61134</v>
+        <v>1720463.46482</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1801114.84802</v>
+        <v>1529941.06013</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>4443700.72802</v>
+        <v>3343363.28731</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>3535672.15123</v>
+        <v>2600117.20989</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>3280561.92482</v>
+        <v>1967472.51003</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>3895293.76326</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>2697790.81172</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>3299743.233</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>4214306.79173</v>
+        <v>3261612.669969999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>5661312.91266</v>
+        <v>4306859.41126</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>3913368.350180001</v>
+        <v>4229196.26848</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>7265340.96579</v>
+        <v>6345578.38907</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>6544799.680280001</v>
+        <v>6648335.60093</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>6792571.735119999</v>
+        <v>5536409.5066</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>6241700.595179999</v>
+        <v>6784481.80689</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>6492484.48411</v>
+        <v>6584380.85791</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>10188127.78366</v>
+        <v>10423638.99038</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>3797864.7304</v>
+        <v>8238907.247359999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>18604386.89713</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>18334980.72822</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>14081794.966</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>543729.8925599999</v>
+        <v>429283.1468400001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>737356.2288</v>
+        <v>615174.29112</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>905474.6825099998</v>
+        <v>748629.92324</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1109249.64312</v>
+        <v>926930.16593</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>959668.7544</v>
+        <v>832304.91634</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1173928.84302</v>
+        <v>976440.5609200001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1533649.88805</v>
+        <v>1423340.14597</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>2180007.82955</v>
+        <v>1824839.18243</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>2200047.67614</v>
+        <v>1858029.80345</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>2238360.90457</v>
+        <v>1820503.15493</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>3480900.421940001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>2734786.69667</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>2632827.417</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>3670576.89917</v>
+        <v>2832329.52313</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>4923956.68386</v>
+        <v>3691685.12014</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>3007893.66767</v>
+        <v>3480566.34524</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>6156091.32267</v>
+        <v>5418648.22314</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>5585130.92588</v>
+        <v>5816030.68459</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>5618642.892100002</v>
+        <v>4559968.94568</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>4708050.70713</v>
+        <v>5361141.66092</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>4312476.654560001</v>
+        <v>4759541.675480001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>7988080.10752</v>
+        <v>8565609.186930001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>1559503.82583</v>
+        <v>6418404.09243</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>15123486.47519</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>15600194.03155</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>11448967.549</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1202</v>
+        <v>404</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1369</v>
+        <v>458</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1681</v>
+        <v>594</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2008</v>
+        <v>719</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1625</v>
+        <v>657</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1893</v>
+        <v>723</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2124</v>
+        <v>779</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2645</v>
+        <v>891</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>3182</v>
+        <v>1064</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1319</v>
+        <v>628</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>493</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>